--- a/results/mp/logistic/corona/confidence/168/stop-words-topk-0.15/avg_0.004_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/168/stop-words-topk-0.15/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="40">
   <si>
     <t>anchor score</t>
   </si>
@@ -58,22 +58,34 @@
     <t>free</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>great</t>
   </si>
   <si>
-    <t>best</t>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>safe</t>
   </si>
   <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>positive</t>
+    <t>good</t>
   </si>
   <si>
     <t>confidence</t>
@@ -82,22 +94,19 @@
     <t>special</t>
   </si>
   <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>thank</t>
+    <t>heroes</t>
   </si>
   <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>heroes</t>
+    <t>join</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>gt</t>
   </si>
   <si>
     <t>better</t>
@@ -106,25 +115,25 @@
     <t>like</t>
   </si>
   <si>
-    <t>relief</t>
-  </si>
-  <si>
     <t>hope</t>
   </si>
   <si>
+    <t>help</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
     <t>well</t>
   </si>
   <si>
-    <t>help</t>
+    <t>share</t>
   </si>
   <si>
     <t>care</t>
   </si>
   <si>
-    <t>share</t>
+    <t>increase</t>
   </si>
 </sst>
 </file>
@@ -482,7 +491,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q27"/>
+  <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -493,7 +502,7 @@
         <v>11</v>
       </c>
       <c r="J1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -551,13 +560,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.7534246575342466</v>
+        <v>0.7465753424657534</v>
       </c>
       <c r="C3">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D3">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -569,19 +578,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K3">
-        <v>0.9130434782608695</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="L3">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="M3">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -593,7 +602,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -601,13 +610,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.3915343915343915</v>
+        <v>0.4074074074074074</v>
       </c>
       <c r="C4">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D4">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -619,19 +628,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>13</v>
       </c>
       <c r="K4">
-        <v>0.9083333333333333</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="L4">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M4">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -643,7 +652,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -651,13 +660,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.3391472868217054</v>
+        <v>0.3313953488372093</v>
       </c>
       <c r="C5">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D5">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -669,19 +678,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>14</v>
       </c>
       <c r="K5">
-        <v>0.8839285714285714</v>
+        <v>0.9152542372881356</v>
       </c>
       <c r="L5">
-        <v>99</v>
+        <v>54</v>
       </c>
       <c r="M5">
-        <v>99</v>
+        <v>54</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -693,7 +702,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -701,13 +710,13 @@
         <v>15</v>
       </c>
       <c r="K6">
-        <v>0.864406779661017</v>
+        <v>0.8660714285714286</v>
       </c>
       <c r="L6">
-        <v>51</v>
+        <v>97</v>
       </c>
       <c r="M6">
-        <v>51</v>
+        <v>97</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -719,7 +728,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -727,13 +736,13 @@
         <v>16</v>
       </c>
       <c r="K7">
-        <v>0.8484848484848485</v>
+        <v>0.8172323759791122</v>
       </c>
       <c r="L7">
-        <v>28</v>
+        <v>313</v>
       </c>
       <c r="M7">
-        <v>28</v>
+        <v>313</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -745,7 +754,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>5</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -753,13 +762,13 @@
         <v>17</v>
       </c>
       <c r="K8">
-        <v>0.8459530026109661</v>
+        <v>0.8170731707317073</v>
       </c>
       <c r="L8">
-        <v>324</v>
+        <v>67</v>
       </c>
       <c r="M8">
-        <v>324</v>
+        <v>67</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -771,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>59</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -779,13 +788,13 @@
         <v>18</v>
       </c>
       <c r="K9">
-        <v>0.8113207547169812</v>
+        <v>0.8103448275862069</v>
       </c>
       <c r="L9">
-        <v>86</v>
+        <v>47</v>
       </c>
       <c r="M9">
-        <v>86</v>
+        <v>47</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -797,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -805,13 +814,13 @@
         <v>19</v>
       </c>
       <c r="K10">
-        <v>0.8103448275862069</v>
+        <v>0.8018867924528302</v>
       </c>
       <c r="L10">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="M10">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -823,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -831,13 +840,13 @@
         <v>20</v>
       </c>
       <c r="K11">
-        <v>0.8055555555555556</v>
+        <v>0.7890625</v>
       </c>
       <c r="L11">
-        <v>29</v>
+        <v>101</v>
       </c>
       <c r="M11">
-        <v>29</v>
+        <v>101</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -849,7 +858,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -857,13 +866,13 @@
         <v>21</v>
       </c>
       <c r="K12">
-        <v>0.8055555555555556</v>
+        <v>0.7816901408450704</v>
       </c>
       <c r="L12">
-        <v>29</v>
+        <v>111</v>
       </c>
       <c r="M12">
-        <v>29</v>
+        <v>111</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -875,7 +884,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>7</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -883,13 +892,13 @@
         <v>22</v>
       </c>
       <c r="K13">
-        <v>0.7804878048780488</v>
+        <v>0.7575757575757576</v>
       </c>
       <c r="L13">
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="M13">
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -901,7 +910,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -935,13 +944,13 @@
         <v>24</v>
       </c>
       <c r="K15">
-        <v>0.7535211267605634</v>
+        <v>0.75</v>
       </c>
       <c r="L15">
-        <v>107</v>
+        <v>27</v>
       </c>
       <c r="M15">
-        <v>107</v>
+        <v>27</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -953,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>35</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -964,10 +973,10 @@
         <v>0.75</v>
       </c>
       <c r="L16">
-        <v>96</v>
+        <v>27</v>
       </c>
       <c r="M16">
-        <v>96</v>
+        <v>27</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -979,7 +988,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>32</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -987,13 +996,13 @@
         <v>26</v>
       </c>
       <c r="K17">
-        <v>0.75</v>
+        <v>0.723404255319149</v>
       </c>
       <c r="L17">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="M17">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1005,7 +1014,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1013,13 +1022,13 @@
         <v>27</v>
       </c>
       <c r="K18">
-        <v>0.7021276595744681</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="L18">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M18">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1039,13 +1048,13 @@
         <v>28</v>
       </c>
       <c r="K19">
-        <v>0.6825396825396826</v>
+        <v>0.6744186046511628</v>
       </c>
       <c r="L19">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="M19">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1057,7 +1066,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1065,13 +1074,13 @@
         <v>29</v>
       </c>
       <c r="K20">
-        <v>0.6058823529411764</v>
+        <v>0.66</v>
       </c>
       <c r="L20">
-        <v>206</v>
+        <v>33</v>
       </c>
       <c r="M20">
-        <v>206</v>
+        <v>33</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1083,7 +1092,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>134</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1091,13 +1100,13 @@
         <v>30</v>
       </c>
       <c r="K21">
-        <v>0.58</v>
+        <v>0.65</v>
       </c>
       <c r="L21">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="M21">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1109,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1117,13 +1126,13 @@
         <v>31</v>
       </c>
       <c r="K22">
-        <v>0.5692307692307692</v>
+        <v>0.6349206349206349</v>
       </c>
       <c r="L22">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="M22">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1135,7 +1144,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1143,13 +1152,13 @@
         <v>32</v>
       </c>
       <c r="K23">
-        <v>0.5648535564853556</v>
+        <v>0.6294117647058823</v>
       </c>
       <c r="L23">
-        <v>135</v>
+        <v>214</v>
       </c>
       <c r="M23">
-        <v>135</v>
+        <v>214</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1161,7 +1170,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>104</v>
+        <v>126</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1169,13 +1178,13 @@
         <v>33</v>
       </c>
       <c r="K24">
-        <v>0.5638297872340425</v>
+        <v>0.5692307692307692</v>
       </c>
       <c r="L24">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="M24">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1187,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>41</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1195,13 +1204,13 @@
         <v>34</v>
       </c>
       <c r="K25">
-        <v>0.559322033898305</v>
+        <v>0.5627118644067797</v>
       </c>
       <c r="L25">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M25">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1213,7 +1222,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1221,13 +1230,13 @@
         <v>35</v>
       </c>
       <c r="K26">
-        <v>0.5280898876404494</v>
+        <v>0.5564853556485355</v>
       </c>
       <c r="L26">
-        <v>47</v>
+        <v>133</v>
       </c>
       <c r="M26">
-        <v>47</v>
+        <v>133</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1239,7 +1248,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>42</v>
+        <v>106</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1247,13 +1256,13 @@
         <v>36</v>
       </c>
       <c r="K27">
-        <v>0.4857142857142857</v>
+        <v>0.5531914893617021</v>
       </c>
       <c r="L27">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="M27">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1265,7 +1274,85 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>36</v>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="10:17">
+      <c r="J28" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K28">
+        <v>0.5285714285714286</v>
+      </c>
+      <c r="L28">
+        <v>37</v>
+      </c>
+      <c r="M28">
+        <v>37</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="10:17">
+      <c r="J29" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K29">
+        <v>0.5056179775280899</v>
+      </c>
+      <c r="L29">
+        <v>45</v>
+      </c>
+      <c r="M29">
+        <v>45</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="30" spans="10:17">
+      <c r="J30" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K30">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="L30">
+        <v>26</v>
+      </c>
+      <c r="M30">
+        <v>26</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
